--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://levi-my.sharepoint.com/personal/bhn_levi_com/Documents/Desktop/WMS_Henderson/WMS_Henderson/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{4DB089F8-723E-4FE4-BB2A-8A6154D1B073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7670733-51C0-46CD-A89B-3832A7E32C70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDD0C7-FE42-4133-B038-64736EC24091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -88,31 +88,34 @@
     <t>USSG</t>
   </si>
   <si>
-    <t>FE2D230724210909</t>
-  </si>
-  <si>
-    <t>ONGN230724210955</t>
-  </si>
-  <si>
     <t>FEPO230725204211</t>
   </si>
   <si>
-    <t>PTEST20230716006</t>
-  </si>
-  <si>
-    <t>PTEST20230716005</t>
-  </si>
-  <si>
     <t>DHEP</t>
   </si>
   <si>
-    <t>PTEST20230726004</t>
-  </si>
-  <si>
-    <t>MPISIN230725007</t>
-  </si>
-  <si>
-    <t>FGCG230726122028</t>
+    <t>SB202322080003</t>
+  </si>
+  <si>
+    <t>SB202322080001</t>
+  </si>
+  <si>
+    <t>SB202322080005</t>
+  </si>
+  <si>
+    <t>SB202322080007</t>
+  </si>
+  <si>
+    <t>SB202322080009</t>
+  </si>
+  <si>
+    <t>SB202322080010</t>
+  </si>
+  <si>
+    <t>SB202322080011</t>
+  </si>
+  <si>
+    <t>SB202322080012</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +499,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -525,6 +528,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A6355-A26B-4B55-A0BF-DCEFC583FE60}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19574D6D-3E93-43D7-A0F5-CE80EC280E3C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -584,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -593,12 +848,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A6355-A26B-4B55-A0BF-DCEFC583FE60}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,8 +954,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
+      <c r="A2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -654,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -663,12 +982,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19574D6D-3E93-43D7-A0F5-CE80EC280E3C}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,281 +1025,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDD0C7-FE42-4133-B038-64736EC24091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072A92E0-447C-430A-9AA1-608F7E3EE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -94,18 +94,6 @@
     <t>DHEP</t>
   </si>
   <si>
-    <t>SB202322080003</t>
-  </si>
-  <si>
-    <t>SB202322080001</t>
-  </si>
-  <si>
-    <t>SB202322080005</t>
-  </si>
-  <si>
-    <t>SB202322080007</t>
-  </si>
-  <si>
     <t>SB202322080009</t>
   </si>
   <si>
@@ -116,6 +104,18 @@
   </si>
   <si>
     <t>SB202322080012</t>
+  </si>
+  <si>
+    <t>SB202322080004</t>
+  </si>
+  <si>
+    <t>SB202322080002</t>
+  </si>
+  <si>
+    <t>SB202322080006</t>
+  </si>
+  <si>
+    <t>SB202322080008</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -531,7 +531,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -601,7 +601,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,6 +612,7 @@
     <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -681,7 +682,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -713,7 +714,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,7 +752,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -782,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,7 +822,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -886,7 +887,7 @@
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -955,7 +956,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -986,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1025,7 +1026,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072A92E0-447C-430A-9AA1-608F7E3EE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53E08D8-9548-4C0F-93B7-4E814803320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -94,28 +94,31 @@
     <t>DHEP</t>
   </si>
   <si>
-    <t>SB202322080009</t>
-  </si>
-  <si>
-    <t>SB202322080010</t>
-  </si>
-  <si>
-    <t>SB202322080011</t>
-  </si>
-  <si>
-    <t>SB202322080012</t>
-  </si>
-  <si>
-    <t>SB202322080004</t>
-  </si>
-  <si>
-    <t>SB202322080002</t>
-  </si>
-  <si>
-    <t>SB202322080006</t>
-  </si>
-  <si>
-    <t>SB202322080008</t>
+    <t>FE2D230904113125</t>
+  </si>
+  <si>
+    <t>USSG230904113223</t>
+  </si>
+  <si>
+    <t>ONGN230904113212</t>
+  </si>
+  <si>
+    <t>SB202304090019</t>
+  </si>
+  <si>
+    <t>SB202304090032</t>
+  </si>
+  <si>
+    <t>SB202304090037</t>
+  </si>
+  <si>
+    <t>SB202304090039</t>
+  </si>
+  <si>
+    <t>USFC</t>
+  </si>
+  <si>
+    <t>SB202304090034</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -531,7 +534,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +572,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -601,7 +604,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,7 +755,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +825,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -853,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,7 +890,7 @@
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -905,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -918,7 +921,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,7 +959,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -988,7 +991,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,7 +1029,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53E08D8-9548-4C0F-93B7-4E814803320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31AA27A-091E-4245-A566-8625C5A66A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -94,31 +94,31 @@
     <t>DHEP</t>
   </si>
   <si>
-    <t>FE2D230904113125</t>
-  </si>
-  <si>
-    <t>USSG230904113223</t>
-  </si>
-  <si>
-    <t>ONGN230904113212</t>
-  </si>
-  <si>
-    <t>SB202304090019</t>
-  </si>
-  <si>
-    <t>SB202304090032</t>
-  </si>
-  <si>
-    <t>SB202304090037</t>
-  </si>
-  <si>
-    <t>SB202304090039</t>
-  </si>
-  <si>
     <t>USFC</t>
   </si>
   <si>
-    <t>SB202304090034</t>
+    <t>MMTEST232409002</t>
+  </si>
+  <si>
+    <t>MMTEST232409004</t>
+  </si>
+  <si>
+    <t>MMTEST232409006</t>
+  </si>
+  <si>
+    <t>MMTEST232409008</t>
+  </si>
+  <si>
+    <t>MMTEST232409010</t>
+  </si>
+  <si>
+    <t>MMTEST232409012</t>
+  </si>
+  <si>
+    <t>MMTEST232409014</t>
+  </si>
+  <si>
+    <t>MMTEST232409016</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -531,259 +531,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A6355-A26B-4B55-A0BF-DCEFC583FE60}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19574D6D-3E93-43D7-A0F5-CE80EC280E3C}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -825,7 +572,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -843,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -852,20 +599,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A6355-A26B-4B55-A0BF-DCEFC583FE60}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,10 +640,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -908,20 +682,42 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19574D6D-3E93-43D7-A0F5-CE80EC280E3C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,8 +754,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
+      <c r="A2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -977,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -986,12 +782,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,8 +824,212 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31AA27A-091E-4245-A566-8625C5A66A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EE08D-3A59-47C6-A827-9AD19281A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -97,28 +97,28 @@
     <t>USFC</t>
   </si>
   <si>
-    <t>MMTEST232409002</t>
-  </si>
-  <si>
-    <t>MMTEST232409004</t>
-  </si>
-  <si>
-    <t>MMTEST232409006</t>
-  </si>
-  <si>
-    <t>MMTEST232409008</t>
-  </si>
-  <si>
-    <t>MMTEST232409010</t>
-  </si>
-  <si>
-    <t>MMTEST232409012</t>
-  </si>
-  <si>
-    <t>MMTEST232409014</t>
-  </si>
-  <si>
-    <t>MMTEST232409016</t>
+    <t>MMTEST2301509015</t>
+  </si>
+  <si>
+    <t>MMTEST2301509013</t>
+  </si>
+  <si>
+    <t>MMTEST2301509012</t>
+  </si>
+  <si>
+    <t>MMTEST2301509010</t>
+  </si>
+  <si>
+    <t>MMTEST2301509008</t>
+  </si>
+  <si>
+    <t>MMTEST2301509006</t>
+  </si>
+  <si>
+    <t>MMTEST2301509004</t>
+  </si>
+  <si>
+    <t>MMTEST2301509002</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -604,7 +604,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,7 +685,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -717,7 +717,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -787,210 +787,6 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1028,8 +824,212 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175EE08D-3A59-47C6-A827-9AD19281A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4660C5-5D76-48E9-9F9C-A62F59B3DD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -97,28 +97,28 @@
     <t>USFC</t>
   </si>
   <si>
-    <t>MMTEST2301509015</t>
-  </si>
-  <si>
-    <t>MMTEST2301509013</t>
-  </si>
-  <si>
-    <t>MMTEST2301509012</t>
-  </si>
-  <si>
-    <t>MMTEST2301509010</t>
-  </si>
-  <si>
-    <t>MMTEST2301509008</t>
-  </si>
-  <si>
-    <t>MMTEST2301509006</t>
-  </si>
-  <si>
-    <t>MMTEST2301509004</t>
-  </si>
-  <si>
-    <t>MMTEST2301509002</t>
+    <t>FE2D230926121019</t>
+  </si>
+  <si>
+    <t>MEXP260923010</t>
+  </si>
+  <si>
+    <t>FEPO230926121042</t>
+  </si>
+  <si>
+    <t>FGCG230926121053</t>
+  </si>
+  <si>
+    <t>FGHD230926121000</t>
+  </si>
+  <si>
+    <t>USSG230926121121</t>
+  </si>
+  <si>
+    <t>USSG230926121119</t>
+  </si>
+  <si>
+    <t>ONGN230926121107</t>
   </si>
 </sst>
 </file>
@@ -464,76 +464,6 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -571,8 +501,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
+      <c r="A2" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -590,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -599,12 +529,82 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A6355-A26B-4B55-A0BF-DCEFC583FE60}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,7 +685,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -717,7 +717,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -787,7 +787,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -857,7 +857,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -991,7 +991,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4660C5-5D76-48E9-9F9C-A62F59B3DD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41856FB9-29E9-4965-8732-2A9B56AC6AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -100,25 +100,25 @@
     <t>FE2D230926121019</t>
   </si>
   <si>
-    <t>MEXP260923010</t>
-  </si>
-  <si>
-    <t>FEPO230926121042</t>
-  </si>
-  <si>
     <t>FGCG230926121053</t>
   </si>
   <si>
     <t>FGHD230926121000</t>
   </si>
   <si>
-    <t>USSG230926121121</t>
-  </si>
-  <si>
-    <t>USSG230926121119</t>
-  </si>
-  <si>
     <t>ONGN230926121107</t>
+  </si>
+  <si>
+    <t>DHEP20231606042</t>
+  </si>
+  <si>
+    <t>FEPO230926121040</t>
+  </si>
+  <si>
+    <t>MGW202310090003</t>
+  </si>
+  <si>
+    <t>MGW202310090004</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -604,7 +604,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,8 +684,8 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -787,6 +787,210 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -824,212 +1028,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508ED7AF-322E-4DFF-BFD2-EAEDF9248194}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41856FB9-29E9-4965-8732-2A9B56AC6AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9675A18-9B6A-4AFC-8965-CA70A6D58419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -94,38 +94,35 @@
     <t>DHEP</t>
   </si>
   <si>
-    <t>USFC</t>
-  </si>
-  <si>
-    <t>FE2D230926121019</t>
-  </si>
-  <si>
-    <t>FGCG230926121053</t>
-  </si>
-  <si>
-    <t>FGHD230926121000</t>
-  </si>
-  <si>
-    <t>ONGN230926121107</t>
-  </si>
-  <si>
-    <t>DHEP20231606042</t>
-  </si>
-  <si>
-    <t>FEPO230926121040</t>
-  </si>
-  <si>
-    <t>MGW202310090003</t>
-  </si>
-  <si>
-    <t>MGW202310090004</t>
+    <t>SB202310130031</t>
+  </si>
+  <si>
+    <t>SB202310130032</t>
+  </si>
+  <si>
+    <t>SB202310130033</t>
+  </si>
+  <si>
+    <t>SB202310130034</t>
+  </si>
+  <si>
+    <t>SB202310130035</t>
+  </si>
+  <si>
+    <t>SB202310130036</t>
+  </si>
+  <si>
+    <t>SB202310130037</t>
+  </si>
+  <si>
+    <t>SB202310130038</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,25 +130,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -175,11 +166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,6 +451,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -501,7 +559,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -520,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -529,82 +587,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A6355-A26B-4B55-A0BF-DCEFC583FE60}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -684,8 +672,8 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -754,8 +742,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
+      <c r="A2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -787,7 +775,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +813,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -889,8 +877,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
+      <c r="A2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -908,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -921,76 +909,6 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1028,8 +946,78 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9675A18-9B6A-4AFC-8965-CA70A6D58419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A14302-E9FF-495D-A30D-AFB871CCB48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -94,28 +94,28 @@
     <t>DHEP</t>
   </si>
   <si>
-    <t>SB202310130031</t>
-  </si>
-  <si>
-    <t>SB202310130032</t>
-  </si>
-  <si>
-    <t>SB202310130033</t>
-  </si>
-  <si>
-    <t>SB202310130034</t>
-  </si>
-  <si>
-    <t>SB202310130035</t>
-  </si>
-  <si>
-    <t>SB202310130036</t>
-  </si>
-  <si>
-    <t>SB202310130037</t>
-  </si>
-  <si>
-    <t>SB202310130038</t>
+    <t>SB202310300011</t>
+  </si>
+  <si>
+    <t>SB202310300021</t>
+  </si>
+  <si>
+    <t>SB202310300031</t>
+  </si>
+  <si>
+    <t>SB202310300041</t>
+  </si>
+  <si>
+    <t>SB202310300015</t>
+  </si>
+  <si>
+    <t>SB202310300025</t>
+  </si>
+  <si>
+    <t>SB202310300035</t>
+  </si>
+  <si>
+    <t>SB202310300051</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +490,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +560,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -705,6 +705,76 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -743,7 +813,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -761,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -770,82 +840,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46A826-3152-4ABF-BED1-6E8735764189}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" customWidth="1"/>
-    <col min="3" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B43AA-E1DB-4000-A99F-EA7E34440419}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A14302-E9FF-495D-A30D-AFB871CCB48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012FA94-BCC0-40B8-AEA2-F40267C1CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,28 +94,28 @@
     <t>DHEP</t>
   </si>
   <si>
-    <t>SB202310300011</t>
-  </si>
-  <si>
-    <t>SB202310300021</t>
-  </si>
-  <si>
-    <t>SB202310300031</t>
-  </si>
-  <si>
-    <t>SB202310300041</t>
-  </si>
-  <si>
-    <t>SB202310300015</t>
-  </si>
-  <si>
-    <t>SB202310300025</t>
-  </si>
-  <si>
-    <t>SB202310300035</t>
-  </si>
-  <si>
-    <t>SB202310300051</t>
+    <t>SSB202311100002</t>
+  </si>
+  <si>
+    <t>SSB202311100001</t>
+  </si>
+  <si>
+    <t>SSB202311100003</t>
+  </si>
+  <si>
+    <t>SSB202311100004</t>
+  </si>
+  <si>
+    <t>SSB202311100005</t>
+  </si>
+  <si>
+    <t>SSB202311100007</t>
+  </si>
+  <si>
+    <t>SSB202311100008</t>
+  </si>
+  <si>
+    <t>SSB202311100006</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,7 +845,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -909,7 +909,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -979,7 +979,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2080445\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012FA94-BCC0-40B8-AEA2-F40267C1CB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E654DE80-DA93-4735-B239-865B5D674E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>OrderNumber</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>SSB202311100006</t>
+  </si>
+  <si>
+    <t>USFC</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -845,7 +848,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +912,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/WMS_TestData_One.xlsx
+++ b/src/WMS_TestData_One.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E654DE80-DA93-4735-B239-865B5D674E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1574A655-4240-4E91-B926-C4294ACFFAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE2D" sheetId="1" r:id="rId1"/>
@@ -94,31 +94,31 @@
     <t>DHEP</t>
   </si>
   <si>
-    <t>SSB202311100002</t>
-  </si>
-  <si>
-    <t>SSB202311100001</t>
-  </si>
-  <si>
-    <t>SSB202311100003</t>
-  </si>
-  <si>
-    <t>SSB202311100004</t>
-  </si>
-  <si>
-    <t>SSB202311100005</t>
-  </si>
-  <si>
-    <t>SSB202311100007</t>
-  </si>
-  <si>
-    <t>SSB202311100008</t>
-  </si>
-  <si>
-    <t>SSB202311100006</t>
-  </si>
-  <si>
-    <t>USFC</t>
+    <t>USPR</t>
+  </si>
+  <si>
+    <t>FE2D202412040004</t>
+  </si>
+  <si>
+    <t>DHEP202412040004</t>
+  </si>
+  <si>
+    <t>FEPO202412040004</t>
+  </si>
+  <si>
+    <t>FGCG202412040004</t>
+  </si>
+  <si>
+    <t>FGHD202412040004</t>
+  </si>
+  <si>
+    <t>USPR202412040004</t>
+  </si>
+  <si>
+    <t>ONGN202412040004</t>
+  </si>
+  <si>
+    <t>USSG202412040004</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D876ACA-291C-46C3-9279-B093BA9D574A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +563,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -676,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -848,7 +848,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -881,7 +881,7 @@
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -899,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +912,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DEE423-1476-48C3-9777-A79D5795589D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
